--- a/ADMIN.xlsx
+++ b/ADMIN.xlsx
@@ -11,13 +11,40 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>GODOWN STATUS</t>
+  </si>
+  <si>
+    <t>CUSTOMER STATEMENT</t>
+  </si>
+  <si>
+    <t>CUSTOMER ORDER MAKER</t>
+  </si>
+  <si>
+    <t>CUSTOER ORDER OUT</t>
+  </si>
+  <si>
+    <t>CREDIT IN MARKET</t>
+  </si>
+  <si>
+    <t>CREDIT FROM MARKET</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +52,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -42,19 +117,151 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet5"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Sheet7"/>
+      <sheetName val="Sheet6"/>
+      <sheetName val="Sheet8"/>
+      <sheetName val="Sheet9"/>
+      <sheetName val="Sheet10"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="G1">
+            <v>1553773</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="20">
+          <cell r="B20">
+            <v>1565203</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,12 +549,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:2" ht="15.75" thickTop="1">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="21">
+      <c r="B3" s="4">
+        <f>[1]Sheet5!$G$1</f>
+        <v>1553773</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="21">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="21.75" thickBot="1">
+      <c r="B6" s="6">
+        <f>[2]Sheet1!$B$20</f>
+        <v>1565203</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15.75" thickTop="1"/>
+    <row r="8" spans="2:2" ht="31.5">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="31.5">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="2:2" ht="31.5">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="31.5">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="2:2" ht="31.5">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="31.5">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="2:2" ht="31.5">
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <webPublishItems count="1">
     <webPublishItem id="8257" divId="ADMIN_8257" sourceType="sheet" destinationFile="E:\UPDATE\WEBSITE\2084377289testbysam\ADMIN.htm" autoRepublish="1"/>

--- a/ADMIN.xlsx
+++ b/ADMIN.xlsx
@@ -209,8 +209,8 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
       <sheetName val="Sheet5"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="Sheet3"/>
       <sheetName val="Sheet4"/>
       <sheetName val="Sheet7"/>
@@ -221,14 +221,14 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="1">
           <cell r="G1">
-            <v>1553773</v>
+            <v>1543427</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -253,7 +253,7 @@
       <sheetData sheetId="0">
         <row r="20">
           <cell r="B20">
-            <v>1565203</v>
+            <v>48400</v>
           </cell>
         </row>
       </sheetData>
@@ -552,7 +552,7 @@
   <dimension ref="B1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -570,7 +570,7 @@
     <row r="3" spans="2:2" ht="21">
       <c r="B3" s="4">
         <f>[1]Sheet5!$G$1</f>
-        <v>1553773</v>
+        <v>1543427</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="21">
@@ -584,7 +584,7 @@
     <row r="6" spans="2:2" ht="21.75" thickBot="1">
       <c r="B6" s="6">
         <f>[2]Sheet1!$B$20</f>
-        <v>1565203</v>
+        <v>48400</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" thickTop="1"/>
